--- a/国赛训练/2019培训3/code/originDataAll.xlsx
+++ b/国赛训练/2019培训3/code/originDataAll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\MCM-2019-College\国赛训练\2019培训3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\MCM-2019-College\国赛训练\2019培训3\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41D523-05A0-4E3B-B911-5D29C453FCCE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539486D0-F1EC-493C-80F5-A59FAB5B4CC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18555" yWindow="-10920" windowWidth="16200" windowHeight="10110" xr2:uid="{98FDAF19-227B-4A85-A300-1F264B583B8D}"/>
+    <workbookView xWindow="-1995" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{98FDAF19-227B-4A85-A300-1F264B583B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="4" r:id="rId1"/>
@@ -470,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A21C59-3A10-4A66-A973-40B6EA3078F3}">
   <dimension ref="A1:I534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="F422" sqref="F422"/>
+    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7294,56 +7294,56 @@
     </row>
     <row r="297" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C297" s="2">
-        <v>39676</v>
+        <v>39675</v>
       </c>
       <c r="D297" s="2">
-        <v>39677</v>
+        <v>39689</v>
       </c>
       <c r="E297" s="2">
-        <v>39678</v>
+        <v>39691</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G297" s="2">
-        <v>39684</v>
+      <c r="G297" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C298" s="2">
         <v>39676</v>
       </c>
       <c r="D298" s="2">
-        <v>39689</v>
+        <v>39677</v>
       </c>
       <c r="E298" s="2">
-        <v>39691</v>
+        <v>39678</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G298" s="2">
-        <v>39700</v>
+        <v>39684</v>
       </c>
     </row>
     <row r="299" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C299" s="2">
         <v>39676</v>
@@ -7352,18 +7352,18 @@
         <v>39689</v>
       </c>
       <c r="E299" s="2">
-        <v>39692</v>
-      </c>
-      <c r="F299" s="2">
-        <v>39694</v>
+        <v>39691</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G299" s="2">
-        <v>39698</v>
+        <v>39700</v>
       </c>
     </row>
     <row r="300" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>12</v>
@@ -7381,12 +7381,12 @@
         <v>39694</v>
       </c>
       <c r="G300" s="2">
-        <v>39696</v>
+        <v>39698</v>
       </c>
     </row>
     <row r="301" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>12</v>
@@ -7404,15 +7404,15 @@
         <v>39694</v>
       </c>
       <c r="G301" s="2">
-        <v>39697</v>
+        <v>39696</v>
       </c>
     </row>
     <row r="302" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C302" s="2">
         <v>39676</v>
@@ -7423,22 +7423,22 @@
       <c r="E302" s="2">
         <v>39692</v>
       </c>
-      <c r="F302" s="1" t="s">
-        <v>8</v>
+      <c r="F302" s="2">
+        <v>39694</v>
       </c>
       <c r="G302" s="2">
-        <v>39695</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="303" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C303" s="2">
-        <v>39677</v>
+        <v>39676</v>
       </c>
       <c r="D303" s="2">
         <v>39689</v>
@@ -7455,13 +7455,13 @@
     </row>
     <row r="304" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
-        <v>303</v>
+        <v>2</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C304" s="2">
-        <v>39677</v>
+        <v>39676</v>
       </c>
       <c r="D304" s="2">
         <v>39689</v>
@@ -7472,131 +7472,131 @@
       <c r="F304" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G304" s="2">
-        <v>39701</v>
+      <c r="G304" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="305" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C305" s="2">
         <v>39677</v>
       </c>
       <c r="D305" s="2">
-        <v>39678</v>
+        <v>39689</v>
       </c>
       <c r="E305" s="2">
-        <v>39679</v>
+        <v>39692</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G305" s="2">
-        <v>39688</v>
+        <v>39695</v>
       </c>
     </row>
     <row r="306" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C306" s="2">
         <v>39677</v>
       </c>
       <c r="D306" s="2">
-        <v>39678</v>
+        <v>39689</v>
       </c>
       <c r="E306" s="2">
-        <v>39679</v>
+        <v>39691</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G306" s="2">
-        <v>39683</v>
+        <v>39701</v>
       </c>
     </row>
     <row r="307" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C307" s="2">
         <v>39677</v>
       </c>
       <c r="D307" s="2">
-        <v>39690</v>
+        <v>39678</v>
       </c>
       <c r="E307" s="2">
-        <v>39692</v>
-      </c>
-      <c r="F307" s="2">
-        <v>39694</v>
+        <v>39679</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G307" s="2">
-        <v>39696</v>
+        <v>39688</v>
       </c>
     </row>
     <row r="308" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C308" s="2">
         <v>39677</v>
       </c>
       <c r="D308" s="2">
-        <v>39690</v>
+        <v>39678</v>
       </c>
       <c r="E308" s="2">
-        <v>39693</v>
+        <v>39679</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G308" s="2">
-        <v>39700</v>
+        <v>39683</v>
       </c>
     </row>
     <row r="309" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C309" s="2">
         <v>39677</v>
       </c>
       <c r="D309" s="2">
-        <v>39678</v>
+        <v>39690</v>
       </c>
       <c r="E309" s="2">
-        <v>39679</v>
-      </c>
-      <c r="F309" s="1" t="s">
-        <v>8</v>
+        <v>39692</v>
+      </c>
+      <c r="F309" s="2">
+        <v>39694</v>
       </c>
       <c r="G309" s="2">
-        <v>39685</v>
+        <v>39696</v>
       </c>
     </row>
     <row r="310" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C310" s="2">
         <v>39677</v>
@@ -7605,64 +7605,64 @@
         <v>39690</v>
       </c>
       <c r="E310" s="2">
-        <v>39692</v>
-      </c>
-      <c r="F310" s="2">
-        <v>39694</v>
+        <v>39693</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G310" s="2">
-        <v>39697</v>
+        <v>39700</v>
       </c>
     </row>
     <row r="311" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C311" s="2">
+        <v>39677</v>
+      </c>
+      <c r="D311" s="2">
         <v>39678</v>
       </c>
-      <c r="D311" s="2">
-        <v>39690</v>
-      </c>
       <c r="E311" s="2">
-        <v>39692</v>
-      </c>
-      <c r="F311" s="2">
-        <v>39694</v>
+        <v>39679</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G311" s="2">
-        <v>39696</v>
+        <v>39685</v>
       </c>
     </row>
     <row r="312" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C312" s="2">
-        <v>39678</v>
+        <v>39677</v>
       </c>
       <c r="D312" s="2">
-        <v>39679</v>
+        <v>39690</v>
       </c>
       <c r="E312" s="2">
-        <v>39680</v>
-      </c>
-      <c r="F312" s="1" t="s">
-        <v>8</v>
+        <v>39692</v>
+      </c>
+      <c r="F312" s="2">
+        <v>39694</v>
       </c>
       <c r="G312" s="2">
-        <v>39683</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="313" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>12</v>
@@ -7680,38 +7680,38 @@
         <v>39694</v>
       </c>
       <c r="G313" s="2">
-        <v>39697</v>
+        <v>39696</v>
       </c>
     </row>
     <row r="314" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C314" s="2">
         <v>39678</v>
       </c>
       <c r="D314" s="2">
-        <v>39690</v>
+        <v>39679</v>
       </c>
       <c r="E314" s="2">
-        <v>39693</v>
+        <v>39680</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G314" s="2">
-        <v>39702</v>
+        <v>39683</v>
       </c>
     </row>
     <row r="315" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C315" s="2">
         <v>39678</v>
@@ -7722,19 +7722,19 @@
       <c r="E315" s="2">
         <v>39692</v>
       </c>
-      <c r="F315" s="1" t="s">
-        <v>8</v>
+      <c r="F315" s="2">
+        <v>39694</v>
       </c>
       <c r="G315" s="2">
-        <v>39696</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="316" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C316" s="2">
         <v>39678</v>
@@ -7743,44 +7743,44 @@
         <v>39690</v>
       </c>
       <c r="E316" s="2">
-        <v>39692</v>
+        <v>39693</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G316" s="2">
-        <v>39695</v>
+        <v>39702</v>
       </c>
     </row>
     <row r="317" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C317" s="2">
         <v>39678</v>
       </c>
       <c r="D317" s="2">
-        <v>39679</v>
+        <v>39690</v>
       </c>
       <c r="E317" s="2">
-        <v>39680</v>
+        <v>39692</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G317" s="2">
-        <v>39687</v>
+        <v>39696</v>
       </c>
     </row>
     <row r="318" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C318" s="2">
         <v>39678</v>
@@ -7791,42 +7791,42 @@
       <c r="E318" s="2">
         <v>39692</v>
       </c>
-      <c r="F318" s="2">
-        <v>39694</v>
+      <c r="F318" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G318" s="2">
-        <v>39698</v>
+        <v>39695</v>
       </c>
     </row>
     <row r="319" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C319" s="2">
         <v>39678</v>
       </c>
       <c r="D319" s="2">
-        <v>39690</v>
+        <v>39679</v>
       </c>
       <c r="E319" s="2">
-        <v>39693</v>
+        <v>39680</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G319" s="2">
-        <v>39701</v>
+        <v>39687</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C320" s="2">
         <v>39678</v>
@@ -7837,19 +7837,19 @@
       <c r="E320" s="2">
         <v>39692</v>
       </c>
-      <c r="F320" s="1" t="s">
-        <v>8</v>
+      <c r="F320" s="2">
+        <v>39694</v>
       </c>
       <c r="G320" s="2">
-        <v>39696</v>
+        <v>39698</v>
       </c>
     </row>
     <row r="321" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C321" s="2">
         <v>39678</v>
@@ -7858,18 +7858,18 @@
         <v>39690</v>
       </c>
       <c r="E321" s="2">
-        <v>39692</v>
-      </c>
-      <c r="F321" s="2">
-        <v>39694</v>
+        <v>39693</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G321" s="2">
-        <v>39697</v>
+        <v>39701</v>
       </c>
     </row>
     <row r="322" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>10</v>
@@ -7878,7 +7878,7 @@
         <v>39678</v>
       </c>
       <c r="D322" s="2">
-        <v>39691</v>
+        <v>39690</v>
       </c>
       <c r="E322" s="2">
         <v>39692</v>
@@ -7887,622 +7887,622 @@
         <v>8</v>
       </c>
       <c r="G322" s="2">
-        <v>39695</v>
+        <v>39696</v>
       </c>
     </row>
     <row r="323" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C323" s="2">
-        <v>39679</v>
+        <v>39678</v>
       </c>
       <c r="D323" s="2">
-        <v>39691</v>
+        <v>39690</v>
       </c>
       <c r="E323" s="2">
-        <v>39693</v>
-      </c>
-      <c r="F323" s="1" t="s">
-        <v>8</v>
+        <v>39692</v>
+      </c>
+      <c r="F323" s="2">
+        <v>39694</v>
       </c>
       <c r="G323" s="2">
-        <v>39700</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="324" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C324" s="2">
-        <v>39679</v>
+        <v>39678</v>
       </c>
       <c r="D324" s="2">
+        <v>39691</v>
+      </c>
+      <c r="E324" s="2">
         <v>39692</v>
       </c>
-      <c r="E324" s="2">
-        <v>39694</v>
-      </c>
       <c r="F324" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G324" s="2">
-        <v>39697</v>
+        <v>39695</v>
       </c>
     </row>
     <row r="325" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C325" s="2">
-        <v>39680</v>
+        <v>39679</v>
       </c>
       <c r="D325" s="2">
-        <v>39695</v>
+        <v>39691</v>
       </c>
       <c r="E325" s="2">
-        <v>39699</v>
+        <v>39693</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G325" s="2">
-        <v>39702</v>
+        <v>39700</v>
       </c>
     </row>
     <row r="326" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C326" s="2">
-        <v>39680</v>
+        <v>39679</v>
       </c>
       <c r="D326" s="2">
-        <v>39681</v>
+        <v>39692</v>
       </c>
       <c r="E326" s="2">
-        <v>39682</v>
+        <v>39694</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G326" s="2">
-        <v>39692</v>
+        <v>39697</v>
       </c>
     </row>
     <row r="327" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C327" s="2">
-        <v>39680</v>
+        <v>39679</v>
       </c>
       <c r="D327" s="2">
-        <v>39681</v>
+        <v>39692</v>
       </c>
       <c r="E327" s="2">
-        <v>39682</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G327" s="2">
-        <v>39686</v>
+        <v>39699</v>
+      </c>
+      <c r="F327" s="2">
+        <v>39701</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
-        <v>327</v>
+        <v>4</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C328" s="2">
-        <v>39680</v>
+        <v>39679</v>
       </c>
       <c r="D328" s="2">
-        <v>39696</v>
+        <v>39692</v>
       </c>
       <c r="E328" s="2">
-        <v>39699</v>
+        <v>39695</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G328" s="2">
-        <v>39701</v>
+      <c r="G328" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="329" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
-        <v>328</v>
+        <v>5</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C329" s="2">
-        <v>39681</v>
+        <v>39679</v>
       </c>
       <c r="D329" s="2">
-        <v>39682</v>
+        <v>39692</v>
       </c>
       <c r="E329" s="2">
-        <v>39683</v>
+        <v>39695</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G329" s="2">
-        <v>39687</v>
+      <c r="G329" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="330" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
-        <v>329</v>
+        <v>6</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C330" s="2">
-        <v>39681</v>
+        <v>39679</v>
       </c>
       <c r="D330" s="2">
-        <v>39696</v>
+        <v>39692</v>
       </c>
       <c r="E330" s="2">
-        <v>39699</v>
+        <v>39695</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G330" s="2">
-        <v>39701</v>
+      <c r="G330" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="331" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
-        <v>330</v>
+        <v>7</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C331" s="2">
-        <v>39682</v>
+        <v>39679</v>
       </c>
       <c r="D331" s="2">
-        <v>39696</v>
+        <v>39692</v>
       </c>
       <c r="E331" s="2">
         <v>39699</v>
       </c>
-      <c r="F331" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G331" s="2">
+      <c r="F331" s="2">
         <v>39701</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C332" s="2">
-        <v>39682</v>
+        <v>39679</v>
       </c>
       <c r="D332" s="2">
-        <v>39683</v>
+        <v>39693</v>
       </c>
       <c r="E332" s="2">
-        <v>39684</v>
+        <v>39695</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G332" s="2">
-        <v>39688</v>
+      <c r="G332" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="333" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
-        <v>332</v>
+        <v>9</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C333" s="2">
-        <v>39683</v>
+        <v>39679</v>
       </c>
       <c r="D333" s="2">
+        <v>39694</v>
+      </c>
+      <c r="E333" s="2">
         <v>39696</v>
       </c>
-      <c r="E333" s="2">
-        <v>39699</v>
-      </c>
       <c r="F333" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G333" s="2">
-        <v>39701</v>
+      <c r="G333" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
-        <v>333</v>
+        <v>10</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C334" s="2">
-        <v>39683</v>
+        <v>39679</v>
       </c>
       <c r="D334" s="2">
-        <v>39684</v>
+        <v>39694</v>
       </c>
       <c r="E334" s="2">
-        <v>39685</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G334" s="2">
-        <v>39695</v>
+        <v>39699</v>
+      </c>
+      <c r="F334" s="2">
+        <v>39701</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="335" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C335" s="2">
-        <v>39685</v>
+        <v>39679</v>
       </c>
       <c r="D335" s="2">
-        <v>39698</v>
+        <v>39694</v>
       </c>
       <c r="E335" s="2">
         <v>39699</v>
       </c>
-      <c r="F335" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G335" s="2">
+      <c r="F335" s="2">
         <v>39701</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C336" s="2">
-        <v>39685</v>
+        <v>39679</v>
       </c>
       <c r="D336" s="2">
-        <v>39698</v>
+        <v>39694</v>
       </c>
       <c r="E336" s="2">
-        <v>39699</v>
+        <v>39696</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G336" s="2">
-        <v>39702</v>
+      <c r="G336" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="337" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
-        <v>336</v>
+        <v>13</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C337" s="2">
-        <v>39685</v>
+        <v>39679</v>
       </c>
       <c r="D337" s="2">
-        <v>39686</v>
+        <v>39695</v>
       </c>
       <c r="E337" s="2">
-        <v>39687</v>
+        <v>39699</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G337" s="2">
-        <v>39694</v>
+      <c r="G337" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="338" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
-        <v>337</v>
+        <v>14</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C338" s="2">
-        <v>39685</v>
+        <v>39679</v>
       </c>
       <c r="D338" s="2">
-        <v>39698</v>
+        <v>39695</v>
       </c>
       <c r="E338" s="2">
-        <v>39699</v>
+        <v>39697</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G338" s="2">
-        <v>39702</v>
+      <c r="G338" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="339" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C339" s="2">
-        <v>39686</v>
+        <v>39680</v>
       </c>
       <c r="D339" s="2">
-        <v>39687</v>
+        <v>39695</v>
       </c>
       <c r="E339" s="2">
-        <v>39688</v>
+        <v>39699</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G339" s="2">
-        <v>39692</v>
+        <v>39702</v>
       </c>
     </row>
     <row r="340" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C340" s="2">
-        <v>39686</v>
+        <v>39680</v>
       </c>
       <c r="D340" s="2">
-        <v>39687</v>
+        <v>39681</v>
       </c>
       <c r="E340" s="2">
-        <v>39688</v>
+        <v>39682</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G340" s="2">
-        <v>39694</v>
+        <v>39692</v>
       </c>
     </row>
     <row r="341" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C341" s="2">
+        <v>39680</v>
+      </c>
+      <c r="D341" s="2">
+        <v>39681</v>
+      </c>
+      <c r="E341" s="2">
+        <v>39682</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G341" s="2">
         <v>39686</v>
-      </c>
-      <c r="D341" s="2">
-        <v>39698</v>
-      </c>
-      <c r="E341" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F341" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G341" s="2">
-        <v>39702</v>
       </c>
     </row>
     <row r="342" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C342" s="2">
-        <v>39687</v>
+        <v>39680</v>
       </c>
       <c r="D342" s="2">
-        <v>39688</v>
+        <v>39696</v>
       </c>
       <c r="E342" s="2">
-        <v>39689</v>
+        <v>39699</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G342" s="2">
-        <v>39694</v>
+        <v>39701</v>
       </c>
     </row>
     <row r="343" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
-        <v>342</v>
+        <v>15</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C343" s="2">
-        <v>39687</v>
+        <v>39680</v>
       </c>
       <c r="D343" s="2">
-        <v>39688</v>
+        <v>39695</v>
       </c>
       <c r="E343" s="2">
-        <v>39689</v>
+        <v>39697</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G343" s="2">
-        <v>39697</v>
+      <c r="G343" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="344" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
-        <v>343</v>
+        <v>16</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C344" s="2">
-        <v>39687</v>
+        <v>39680</v>
       </c>
       <c r="D344" s="2">
-        <v>39688</v>
+        <v>39695</v>
       </c>
       <c r="E344" s="2">
-        <v>39689</v>
+        <v>39697</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G344" s="2">
-        <v>39697</v>
+      <c r="G344" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
-        <v>344</v>
+        <v>17</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C345" s="2">
-        <v>39689</v>
+        <v>39680</v>
       </c>
       <c r="D345" s="2">
-        <v>39690</v>
+        <v>39695</v>
       </c>
       <c r="E345" s="2">
-        <v>39691</v>
+        <v>39697</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G345" s="2">
-        <v>39700</v>
+      <c r="G345" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
-        <v>345</v>
+        <v>18</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C346" s="2">
-        <v>39689</v>
+        <v>39680</v>
       </c>
       <c r="D346" s="2">
-        <v>39690</v>
+        <v>39695</v>
       </c>
       <c r="E346" s="2">
-        <v>39691</v>
+        <v>39697</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G346" s="2">
-        <v>39699</v>
+      <c r="G346" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="347" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
-        <v>346</v>
+        <v>19</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C347" s="2">
-        <v>39692</v>
+        <v>39680</v>
       </c>
       <c r="D347" s="2">
-        <v>39693</v>
+        <v>39695</v>
       </c>
       <c r="E347" s="2">
-        <v>39694</v>
-      </c>
-      <c r="F347" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G347" s="2">
         <v>39699</v>
+      </c>
+      <c r="F347" s="2">
+        <v>39701</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="348" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
-        <v>347</v>
+        <v>328</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C348" s="2">
-        <v>39693</v>
+        <v>39681</v>
       </c>
       <c r="D348" s="2">
-        <v>39694</v>
+        <v>39682</v>
       </c>
       <c r="E348" s="2">
-        <v>39695</v>
+        <v>39683</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G348" s="2">
-        <v>39700</v>
+        <v>39687</v>
       </c>
     </row>
     <row r="349" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C349" s="2">
-        <v>39694</v>
+        <v>39681</v>
       </c>
       <c r="D349" s="2">
-        <v>39695</v>
+        <v>39696</v>
       </c>
       <c r="E349" s="2">
-        <v>39696</v>
+        <v>39699</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>8</v>
@@ -8513,85 +8513,85 @@
     </row>
     <row r="350" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C350" s="2">
-        <v>39695</v>
+        <v>39681</v>
       </c>
       <c r="D350" s="2">
         <v>39696</v>
       </c>
       <c r="E350" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G350" s="2">
-        <v>39702</v>
+      <c r="G350" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="351" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
-        <v>1</v>
+        <v>330</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C351" s="2">
-        <v>39675</v>
+        <v>39682</v>
       </c>
       <c r="D351" s="2">
-        <v>39689</v>
+        <v>39696</v>
       </c>
       <c r="E351" s="2">
-        <v>39691</v>
+        <v>39699</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G351" s="1" t="s">
-        <v>8</v>
+      <c r="G351" s="2">
+        <v>39701</v>
       </c>
     </row>
     <row r="352" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
-        <v>2</v>
+        <v>331</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C352" s="2">
-        <v>39676</v>
+        <v>39682</v>
       </c>
       <c r="D352" s="2">
-        <v>39689</v>
+        <v>39683</v>
       </c>
       <c r="E352" s="2">
-        <v>39691</v>
+        <v>39684</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G352" s="1" t="s">
-        <v>8</v>
+      <c r="G352" s="2">
+        <v>39688</v>
       </c>
     </row>
     <row r="353" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C353" s="2">
-        <v>39679</v>
+        <v>39682</v>
       </c>
       <c r="D353" s="2">
-        <v>39692</v>
+        <v>39696</v>
       </c>
       <c r="E353" s="2">
         <v>39699</v>
@@ -8605,22 +8605,22 @@
     </row>
     <row r="354" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C354" s="2">
-        <v>39679</v>
+        <v>39682</v>
       </c>
       <c r="D354" s="2">
-        <v>39692</v>
+        <v>39696</v>
       </c>
       <c r="E354" s="2">
-        <v>39695</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>8</v>
+        <v>39699</v>
+      </c>
+      <c r="F354" s="2">
+        <v>39701</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>8</v>
@@ -8628,19 +8628,19 @@
     </row>
     <row r="355" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C355" s="2">
-        <v>39679</v>
+        <v>39682</v>
       </c>
       <c r="D355" s="2">
-        <v>39692</v>
+        <v>39696</v>
       </c>
       <c r="E355" s="2">
-        <v>39695</v>
+        <v>39698</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>8</v>
@@ -8651,65 +8651,65 @@
     </row>
     <row r="356" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
-        <v>6</v>
+        <v>332</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C356" s="2">
-        <v>39679</v>
+        <v>39683</v>
       </c>
       <c r="D356" s="2">
-        <v>39692</v>
+        <v>39696</v>
       </c>
       <c r="E356" s="2">
-        <v>39695</v>
+        <v>39699</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G356" s="1" t="s">
-        <v>8</v>
+      <c r="G356" s="2">
+        <v>39701</v>
       </c>
     </row>
     <row r="357" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
+        <v>333</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C357" s="2">
-        <v>39679</v>
+        <v>39683</v>
       </c>
       <c r="D357" s="2">
-        <v>39692</v>
+        <v>39684</v>
       </c>
       <c r="E357" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F357" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>8</v>
+        <v>39685</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G357" s="2">
+        <v>39695</v>
       </c>
     </row>
     <row r="358" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C358" s="2">
-        <v>39679</v>
+        <v>39683</v>
       </c>
       <c r="D358" s="2">
-        <v>39693</v>
+        <v>39696</v>
       </c>
       <c r="E358" s="2">
-        <v>39695</v>
+        <v>39698</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>8</v>
@@ -8720,19 +8720,19 @@
     </row>
     <row r="359" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C359" s="2">
-        <v>39679</v>
+        <v>39683</v>
       </c>
       <c r="D359" s="2">
-        <v>39694</v>
+        <v>39696</v>
       </c>
       <c r="E359" s="2">
-        <v>39696</v>
+        <v>39698</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>8</v>
@@ -8743,16 +8743,16 @@
     </row>
     <row r="360" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C360" s="2">
-        <v>39679</v>
+        <v>39683</v>
       </c>
       <c r="D360" s="2">
-        <v>39694</v>
+        <v>39696</v>
       </c>
       <c r="E360" s="2">
         <v>39699</v>
@@ -8766,22 +8766,22 @@
     </row>
     <row r="361" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C361" s="2">
-        <v>39679</v>
+        <v>39683</v>
       </c>
       <c r="D361" s="2">
-        <v>39694</v>
+        <v>39697</v>
       </c>
       <c r="E361" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F361" s="2">
-        <v>39701</v>
+        <v>39700</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G361" s="1" t="s">
         <v>8</v>
@@ -8789,22 +8789,22 @@
     </row>
     <row r="362" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C362" s="2">
-        <v>39679</v>
+        <v>39683</v>
       </c>
       <c r="D362" s="2">
-        <v>39694</v>
+        <v>39697</v>
       </c>
       <c r="E362" s="2">
-        <v>39696</v>
-      </c>
-      <c r="F362" s="1" t="s">
-        <v>8</v>
+        <v>39699</v>
+      </c>
+      <c r="F362" s="2">
+        <v>39701</v>
       </c>
       <c r="G362" s="1" t="s">
         <v>8</v>
@@ -8812,22 +8812,22 @@
     </row>
     <row r="363" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C363" s="2">
-        <v>39679</v>
+        <v>39683</v>
       </c>
       <c r="D363" s="2">
-        <v>39695</v>
+        <v>39697</v>
       </c>
       <c r="E363" s="2">
         <v>39699</v>
       </c>
-      <c r="F363" s="1" t="s">
-        <v>8</v>
+      <c r="F363" s="2">
+        <v>39701</v>
       </c>
       <c r="G363" s="1" t="s">
         <v>8</v>
@@ -8835,19 +8835,19 @@
     </row>
     <row r="364" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C364" s="2">
-        <v>39679</v>
+        <v>39684</v>
       </c>
       <c r="D364" s="2">
-        <v>39695</v>
+        <v>39697</v>
       </c>
       <c r="E364" s="2">
-        <v>39697</v>
+        <v>39700</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>8</v>
@@ -8858,19 +8858,19 @@
     </row>
     <row r="365" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C365" s="2">
-        <v>39680</v>
+        <v>39684</v>
       </c>
       <c r="D365" s="2">
-        <v>39695</v>
+        <v>39697</v>
       </c>
       <c r="E365" s="2">
-        <v>39697</v>
+        <v>39700</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>8</v>
@@ -8881,22 +8881,22 @@
     </row>
     <row r="366" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C366" s="2">
-        <v>39680</v>
+        <v>39684</v>
       </c>
       <c r="D366" s="2">
-        <v>39695</v>
+        <v>39697</v>
       </c>
       <c r="E366" s="2">
-        <v>39697</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>8</v>
+        <v>39699</v>
+      </c>
+      <c r="F366" s="2">
+        <v>39701</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>8</v>
@@ -8904,19 +8904,19 @@
     </row>
     <row r="367" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C367" s="2">
-        <v>39680</v>
+        <v>39684</v>
       </c>
       <c r="D367" s="2">
-        <v>39695</v>
+        <v>39697</v>
       </c>
       <c r="E367" s="2">
-        <v>39697</v>
+        <v>39700</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>8</v>
@@ -8927,19 +8927,19 @@
     </row>
     <row r="368" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C368" s="2">
-        <v>39680</v>
+        <v>39684</v>
       </c>
       <c r="D368" s="2">
-        <v>39695</v>
+        <v>39697</v>
       </c>
       <c r="E368" s="2">
-        <v>39697</v>
+        <v>39700</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>8</v>
@@ -8950,16 +8950,16 @@
     </row>
     <row r="369" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C369" s="2">
-        <v>39680</v>
+        <v>39684</v>
       </c>
       <c r="D369" s="2">
-        <v>39695</v>
+        <v>39697</v>
       </c>
       <c r="E369" s="2">
         <v>39699</v>
@@ -8973,19 +8973,19 @@
     </row>
     <row r="370" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C370" s="2">
-        <v>39681</v>
+        <v>39684</v>
       </c>
       <c r="D370" s="2">
-        <v>39696</v>
+        <v>39697</v>
       </c>
       <c r="E370" s="2">
-        <v>39698</v>
+        <v>39700</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>8</v>
@@ -8996,111 +8996,111 @@
     </row>
     <row r="371" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
-        <v>21</v>
+        <v>334</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C371" s="2">
-        <v>39682</v>
+        <v>39685</v>
       </c>
       <c r="D371" s="2">
-        <v>39696</v>
+        <v>39698</v>
       </c>
       <c r="E371" s="2">
         <v>39699</v>
       </c>
-      <c r="F371" s="2">
+      <c r="F371" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G371" s="2">
         <v>39701</v>
-      </c>
-      <c r="G371" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C372" s="2">
-        <v>39682</v>
+        <v>39685</v>
       </c>
       <c r="D372" s="2">
-        <v>39696</v>
+        <v>39698</v>
       </c>
       <c r="E372" s="2">
         <v>39699</v>
       </c>
-      <c r="F372" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G372" s="1" t="s">
-        <v>8</v>
+      <c r="F372" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G372" s="2">
+        <v>39702</v>
       </c>
     </row>
     <row r="373" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
-        <v>23</v>
+        <v>336</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C373" s="2">
-        <v>39682</v>
+        <v>39685</v>
       </c>
       <c r="D373" s="2">
-        <v>39696</v>
+        <v>39686</v>
       </c>
       <c r="E373" s="2">
-        <v>39698</v>
+        <v>39687</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G373" s="1" t="s">
-        <v>8</v>
+      <c r="G373" s="2">
+        <v>39694</v>
       </c>
     </row>
     <row r="374" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
-        <v>24</v>
+        <v>337</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C374" s="2">
-        <v>39683</v>
+        <v>39685</v>
       </c>
       <c r="D374" s="2">
-        <v>39696</v>
+        <v>39698</v>
       </c>
       <c r="E374" s="2">
-        <v>39698</v>
+        <v>39699</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G374" s="1" t="s">
-        <v>8</v>
+      <c r="G374" s="2">
+        <v>39702</v>
       </c>
     </row>
     <row r="375" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C375" s="2">
-        <v>39683</v>
+        <v>39685</v>
       </c>
       <c r="D375" s="2">
-        <v>39696</v>
+        <v>39697</v>
       </c>
       <c r="E375" s="2">
-        <v>39698</v>
+        <v>39700</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>8</v>
@@ -9111,22 +9111,22 @@
     </row>
     <row r="376" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C376" s="2">
-        <v>39683</v>
+        <v>39685</v>
       </c>
       <c r="D376" s="2">
-        <v>39696</v>
+        <v>39697</v>
       </c>
       <c r="E376" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F376" s="2">
-        <v>39701</v>
+        <v>39700</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G376" s="1" t="s">
         <v>8</v>
@@ -9134,13 +9134,13 @@
     </row>
     <row r="377" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C377" s="2">
-        <v>39683</v>
+        <v>39685</v>
       </c>
       <c r="D377" s="2">
         <v>39697</v>
@@ -9157,13 +9157,13 @@
     </row>
     <row r="378" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C378" s="2">
-        <v>39683</v>
+        <v>39685</v>
       </c>
       <c r="D378" s="2">
         <v>39697</v>
@@ -9180,16 +9180,16 @@
     </row>
     <row r="379" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C379" s="2">
-        <v>39683</v>
+        <v>39685</v>
       </c>
       <c r="D379" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="E379" s="2">
         <v>39699</v>
@@ -9203,85 +9203,85 @@
     </row>
     <row r="380" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
-        <v>30</v>
+        <v>338</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C380" s="2">
-        <v>39684</v>
+        <v>39686</v>
       </c>
       <c r="D380" s="2">
-        <v>39697</v>
+        <v>39687</v>
       </c>
       <c r="E380" s="2">
-        <v>39700</v>
+        <v>39688</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G380" s="1" t="s">
-        <v>8</v>
+      <c r="G380" s="2">
+        <v>39692</v>
       </c>
     </row>
     <row r="381" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C381" s="2">
-        <v>39684</v>
+        <v>39686</v>
       </c>
       <c r="D381" s="2">
-        <v>39697</v>
+        <v>39687</v>
       </c>
       <c r="E381" s="2">
-        <v>39700</v>
+        <v>39688</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G381" s="1" t="s">
-        <v>8</v>
+      <c r="G381" s="2">
+        <v>39694</v>
       </c>
     </row>
     <row r="382" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
-        <v>32</v>
+        <v>340</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C382" s="2">
-        <v>39684</v>
+        <v>39686</v>
       </c>
       <c r="D382" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="E382" s="2">
         <v>39699</v>
       </c>
-      <c r="F382" s="2">
-        <v>39701</v>
-      </c>
-      <c r="G382" s="1" t="s">
-        <v>8</v>
+      <c r="F382" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G382" s="2">
+        <v>39702</v>
       </c>
     </row>
     <row r="383" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C383" s="2">
-        <v>39684</v>
+        <v>39686</v>
       </c>
       <c r="D383" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="E383" s="2">
         <v>39700</v>
@@ -9295,19 +9295,19 @@
     </row>
     <row r="384" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C384" s="2">
-        <v>39684</v>
+        <v>39686</v>
       </c>
       <c r="D384" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="E384" s="2">
-        <v>39700</v>
+        <v>39699</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>8</v>
@@ -9318,16 +9318,16 @@
     </row>
     <row r="385" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C385" s="2">
-        <v>39684</v>
+        <v>39686</v>
       </c>
       <c r="D385" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="E385" s="2">
         <v>39699</v>
@@ -9341,16 +9341,16 @@
     </row>
     <row r="386" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C386" s="2">
-        <v>39684</v>
+        <v>39686</v>
       </c>
       <c r="D386" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="E386" s="2">
         <v>39700</v>
@@ -9364,91 +9364,91 @@
     </row>
     <row r="387" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>37</v>
+        <v>341</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C387" s="2">
-        <v>39685</v>
+        <v>39687</v>
       </c>
       <c r="D387" s="2">
-        <v>39697</v>
+        <v>39688</v>
       </c>
       <c r="E387" s="2">
-        <v>39700</v>
+        <v>39689</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G387" s="1" t="s">
-        <v>8</v>
+      <c r="G387" s="2">
+        <v>39694</v>
       </c>
     </row>
     <row r="388" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C388" s="2">
-        <v>39685</v>
+        <v>39687</v>
       </c>
       <c r="D388" s="2">
+        <v>39688</v>
+      </c>
+      <c r="E388" s="2">
+        <v>39689</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G388" s="2">
         <v>39697</v>
-      </c>
-      <c r="E388" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F388" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G388" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="389" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>39</v>
+        <v>343</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C389" s="2">
-        <v>39685</v>
+        <v>39687</v>
       </c>
       <c r="D389" s="2">
+        <v>39688</v>
+      </c>
+      <c r="E389" s="2">
+        <v>39689</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G389" s="2">
         <v>39697</v>
-      </c>
-      <c r="E389" s="2">
-        <v>39700</v>
-      </c>
-      <c r="F389" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G389" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="390" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C390" s="2">
-        <v>39685</v>
+        <v>39687</v>
       </c>
       <c r="D390" s="2">
-        <v>39697</v>
+        <v>39699</v>
       </c>
       <c r="E390" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F390" s="2">
-        <v>39701</v>
+        <v>39702</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G390" s="1" t="s">
         <v>8</v>
@@ -9456,22 +9456,22 @@
     </row>
     <row r="391" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C391" s="2">
-        <v>39685</v>
+        <v>39687</v>
       </c>
       <c r="D391" s="2">
-        <v>39698</v>
+        <v>39699</v>
       </c>
       <c r="E391" s="2">
-        <v>39699</v>
-      </c>
-      <c r="F391" s="2">
-        <v>39701</v>
+        <v>39702</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G391" s="1" t="s">
         <v>8</v>
@@ -9479,19 +9479,19 @@
     </row>
     <row r="392" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C392" s="2">
-        <v>39686</v>
+        <v>39687</v>
       </c>
       <c r="D392" s="2">
-        <v>39698</v>
+        <v>39699</v>
       </c>
       <c r="E392" s="2">
-        <v>39700</v>
+        <v>39701</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>8</v>
@@ -9502,19 +9502,19 @@
     </row>
     <row r="393" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C393" s="2">
-        <v>39686</v>
+        <v>39687</v>
       </c>
       <c r="D393" s="2">
-        <v>39698</v>
+        <v>39699</v>
       </c>
       <c r="E393" s="2">
-        <v>39699</v>
+        <v>39702</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>8</v>
@@ -9525,22 +9525,22 @@
     </row>
     <row r="394" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C394" s="2">
-        <v>39686</v>
+        <v>39687</v>
       </c>
       <c r="D394" s="2">
-        <v>39698</v>
+        <v>39700</v>
       </c>
       <c r="E394" s="2">
-        <v>39699</v>
+        <v>39706</v>
       </c>
       <c r="F394" s="2">
-        <v>39701</v>
+        <v>39708</v>
       </c>
       <c r="G394" s="1" t="s">
         <v>8</v>
@@ -9548,19 +9548,19 @@
     </row>
     <row r="395" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C395" s="2">
-        <v>39686</v>
+        <v>39688</v>
       </c>
       <c r="D395" s="2">
-        <v>39698</v>
+        <v>39700</v>
       </c>
       <c r="E395" s="2">
-        <v>39700</v>
+        <v>39702</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>8</v>
@@ -9571,19 +9571,19 @@
     </row>
     <row r="396" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C396" s="2">
-        <v>39687</v>
+        <v>39688</v>
       </c>
       <c r="D396" s="2">
-        <v>39699</v>
+        <v>39700</v>
       </c>
       <c r="E396" s="2">
-        <v>39702</v>
+        <v>39701</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>8</v>
@@ -9594,22 +9594,22 @@
     </row>
     <row r="397" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C397" s="2">
-        <v>39687</v>
+        <v>39688</v>
       </c>
       <c r="D397" s="2">
-        <v>39699</v>
+        <v>39701</v>
       </c>
       <c r="E397" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F397" s="1" t="s">
-        <v>8</v>
+        <v>39706</v>
+      </c>
+      <c r="F397" s="2">
+        <v>39708</v>
       </c>
       <c r="G397" s="1" t="s">
         <v>8</v>
@@ -9617,19 +9617,19 @@
     </row>
     <row r="398" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C398" s="2">
-        <v>39687</v>
+        <v>39688</v>
       </c>
       <c r="D398" s="2">
-        <v>39699</v>
+        <v>39701</v>
       </c>
       <c r="E398" s="2">
-        <v>39701</v>
+        <v>39703</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>8</v>
@@ -9640,19 +9640,19 @@
     </row>
     <row r="399" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C399" s="2">
-        <v>39687</v>
+        <v>39688</v>
       </c>
       <c r="D399" s="2">
-        <v>39699</v>
+        <v>39701</v>
       </c>
       <c r="E399" s="2">
-        <v>39702</v>
+        <v>39703</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>8</v>
@@ -9663,22 +9663,22 @@
     </row>
     <row r="400" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C400" s="2">
-        <v>39687</v>
+        <v>39688</v>
       </c>
       <c r="D400" s="2">
-        <v>39700</v>
+        <v>39701</v>
       </c>
       <c r="E400" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F400" s="2">
-        <v>39708</v>
+        <v>39703</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G400" s="1" t="s">
         <v>8</v>
@@ -9686,22 +9686,22 @@
     </row>
     <row r="401" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C401" s="2">
         <v>39688</v>
       </c>
       <c r="D401" s="2">
-        <v>39700</v>
+        <v>39701</v>
       </c>
       <c r="E401" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F401" s="1" t="s">
-        <v>8</v>
+        <v>39706</v>
+      </c>
+      <c r="F401" s="2">
+        <v>39708</v>
       </c>
       <c r="G401" s="1" t="s">
         <v>8</v>
@@ -9709,22 +9709,22 @@
     </row>
     <row r="402" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C402" s="2">
         <v>39688</v>
       </c>
       <c r="D402" s="2">
-        <v>39700</v>
+        <v>39701</v>
       </c>
       <c r="E402" s="2">
-        <v>39701</v>
-      </c>
-      <c r="F402" s="1" t="s">
-        <v>8</v>
+        <v>39706</v>
+      </c>
+      <c r="F402" s="2">
+        <v>39708</v>
       </c>
       <c r="G402" s="1" t="s">
         <v>8</v>
@@ -9732,22 +9732,22 @@
     </row>
     <row r="403" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C403" s="2">
         <v>39688</v>
       </c>
       <c r="D403" s="2">
-        <v>39701</v>
+        <v>39700</v>
       </c>
       <c r="E403" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F403" s="2">
-        <v>39708</v>
+        <v>39702</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G403" s="1" t="s">
         <v>8</v>
@@ -9755,59 +9755,59 @@
     </row>
     <row r="404" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>54</v>
+        <v>344</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C404" s="2">
-        <v>39688</v>
+        <v>39689</v>
       </c>
       <c r="D404" s="2">
-        <v>39701</v>
+        <v>39690</v>
       </c>
       <c r="E404" s="2">
-        <v>39703</v>
+        <v>39691</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G404" s="1" t="s">
-        <v>8</v>
+      <c r="G404" s="2">
+        <v>39700</v>
       </c>
     </row>
     <row r="405" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>55</v>
+        <v>345</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C405" s="2">
-        <v>39688</v>
+        <v>39689</v>
       </c>
       <c r="D405" s="2">
-        <v>39701</v>
+        <v>39690</v>
       </c>
       <c r="E405" s="2">
-        <v>39703</v>
+        <v>39691</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G405" s="1" t="s">
-        <v>8</v>
+      <c r="G405" s="2">
+        <v>39699</v>
       </c>
     </row>
     <row r="406" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C406" s="2">
-        <v>39688</v>
+        <v>39689</v>
       </c>
       <c r="D406" s="2">
         <v>39701</v>
@@ -9824,22 +9824,22 @@
     </row>
     <row r="407" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C407" s="2">
-        <v>39688</v>
+        <v>39689</v>
       </c>
       <c r="D407" s="2">
         <v>39701</v>
       </c>
       <c r="E407" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F407" s="2">
-        <v>39708</v>
+        <v>39703</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G407" s="1" t="s">
         <v>8</v>
@@ -9847,22 +9847,22 @@
     </row>
     <row r="408" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C408" s="2">
-        <v>39688</v>
+        <v>39689</v>
       </c>
       <c r="D408" s="2">
         <v>39701</v>
       </c>
       <c r="E408" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F408" s="2">
-        <v>39708</v>
+        <v>39703</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G408" s="1" t="s">
         <v>8</v>
@@ -9870,22 +9870,22 @@
     </row>
     <row r="409" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C409" s="2">
-        <v>39688</v>
+        <v>39689</v>
       </c>
       <c r="D409" s="2">
-        <v>39700</v>
+        <v>39701</v>
       </c>
       <c r="E409" s="2">
-        <v>39702</v>
-      </c>
-      <c r="F409" s="1" t="s">
-        <v>8</v>
+        <v>39706</v>
+      </c>
+      <c r="F409" s="2">
+        <v>39708</v>
       </c>
       <c r="G409" s="1" t="s">
         <v>8</v>
@@ -9893,10 +9893,10 @@
     </row>
     <row r="410" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C410" s="2">
         <v>39689</v>
@@ -9916,19 +9916,19 @@
     </row>
     <row r="411" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C411" s="2">
         <v>39689</v>
       </c>
       <c r="D411" s="2">
-        <v>39701</v>
+        <v>39702</v>
       </c>
       <c r="E411" s="2">
-        <v>39703</v>
+        <v>39706</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>8</v>
@@ -9939,22 +9939,22 @@
     </row>
     <row r="412" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C412" s="2">
         <v>39689</v>
       </c>
       <c r="D412" s="2">
-        <v>39701</v>
+        <v>39702</v>
       </c>
       <c r="E412" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F412" s="1" t="s">
-        <v>8</v>
+        <v>39706</v>
+      </c>
+      <c r="F412" s="2">
+        <v>39708</v>
       </c>
       <c r="G412" s="1" t="s">
         <v>8</v>
@@ -9962,22 +9962,22 @@
     </row>
     <row r="413" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C413" s="2">
         <v>39689</v>
       </c>
       <c r="D413" s="2">
-        <v>39701</v>
+        <v>39702</v>
       </c>
       <c r="E413" s="2">
         <v>39706</v>
       </c>
-      <c r="F413" s="2">
-        <v>39708</v>
+      <c r="F413" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G413" s="1" t="s">
         <v>8</v>
@@ -9985,22 +9985,22 @@
     </row>
     <row r="414" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C414" s="2">
         <v>39689</v>
       </c>
       <c r="D414" s="2">
-        <v>39701</v>
+        <v>39702</v>
       </c>
       <c r="E414" s="2">
-        <v>39703</v>
-      </c>
-      <c r="F414" s="1" t="s">
-        <v>8</v>
+        <v>39706</v>
+      </c>
+      <c r="F414" s="2">
+        <v>39708</v>
       </c>
       <c r="G414" s="1" t="s">
         <v>8</v>
@@ -10008,19 +10008,19 @@
     </row>
     <row r="415" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C415" s="2">
-        <v>39689</v>
+        <v>39690</v>
       </c>
       <c r="D415" s="2">
         <v>39702</v>
       </c>
       <c r="E415" s="2">
-        <v>39706</v>
+        <v>39704</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>8</v>
@@ -10031,13 +10031,13 @@
     </row>
     <row r="416" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C416" s="2">
-        <v>39689</v>
+        <v>39690</v>
       </c>
       <c r="D416" s="2">
         <v>39702</v>
@@ -10045,8 +10045,8 @@
       <c r="E416" s="2">
         <v>39706</v>
       </c>
-      <c r="F416" s="2">
-        <v>39708</v>
+      <c r="F416" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G416" s="1" t="s">
         <v>8</v>
@@ -10054,19 +10054,19 @@
     </row>
     <row r="417" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C417" s="2">
-        <v>39689</v>
+        <v>39690</v>
       </c>
       <c r="D417" s="2">
         <v>39702</v>
       </c>
       <c r="E417" s="2">
-        <v>39706</v>
+        <v>39704</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>8</v>
@@ -10077,22 +10077,22 @@
     </row>
     <row r="418" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C418" s="2">
-        <v>39689</v>
-      </c>
-      <c r="D418" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E418" s="2">
-        <v>39706</v>
-      </c>
-      <c r="F418" s="2">
-        <v>39708</v>
+        <v>39690</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="G418" s="1" t="s">
         <v>8</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="419" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>9</v>
@@ -10108,11 +10108,11 @@
       <c r="C419" s="2">
         <v>39690</v>
       </c>
-      <c r="D419" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E419" s="2">
-        <v>39704</v>
+      <c r="D419" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>8</v>
@@ -10123,19 +10123,19 @@
     </row>
     <row r="420" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C420" s="2">
         <v>39690</v>
       </c>
-      <c r="D420" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E420" s="2">
-        <v>39706</v>
+      <c r="D420" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>8</v>
@@ -10146,7 +10146,7 @@
     </row>
     <row r="421" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>9</v>
@@ -10154,11 +10154,11 @@
       <c r="C421" s="2">
         <v>39690</v>
       </c>
-      <c r="D421" s="2">
-        <v>39702</v>
-      </c>
-      <c r="E421" s="2">
-        <v>39704</v>
+      <c r="D421" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>8</v>
@@ -10169,19 +10169,19 @@
     </row>
     <row r="422" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C422" s="2">
-        <v>39695</v>
-      </c>
-      <c r="D422" s="2">
-        <v>39696</v>
-      </c>
-      <c r="E422" s="2">
-        <v>39697</v>
+        <v>39690</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>8</v>
@@ -10192,19 +10192,19 @@
     </row>
     <row r="423" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C423" s="2">
-        <v>39696</v>
-      </c>
-      <c r="D423" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E423" s="2">
-        <v>39698</v>
+        <v>39690</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>8</v>
@@ -10215,19 +10215,19 @@
     </row>
     <row r="424" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C424" s="2">
-        <v>39696</v>
-      </c>
-      <c r="D424" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E424" s="2">
-        <v>39698</v>
+        <v>39691</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>8</v>
@@ -10238,19 +10238,19 @@
     </row>
     <row r="425" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C425" s="2">
-        <v>39696</v>
-      </c>
-      <c r="D425" s="2">
-        <v>39697</v>
-      </c>
-      <c r="E425" s="2">
-        <v>39698</v>
+        <v>39691</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>8</v>
@@ -10261,19 +10261,19 @@
     </row>
     <row r="426" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C426" s="2">
-        <v>39697</v>
-      </c>
-      <c r="D426" s="2">
-        <v>39698</v>
-      </c>
-      <c r="E426" s="2">
-        <v>39699</v>
+        <v>39691</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>8</v>
@@ -10284,19 +10284,19 @@
     </row>
     <row r="427" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C427" s="2">
-        <v>39699</v>
-      </c>
-      <c r="D427" s="2">
-        <v>39700</v>
-      </c>
-      <c r="E427" s="2">
-        <v>39701</v>
+        <v>39691</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>8</v>
@@ -10307,19 +10307,19 @@
     </row>
     <row r="428" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C428" s="2">
-        <v>39700</v>
-      </c>
-      <c r="D428" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E428" s="2">
-        <v>39702</v>
+        <v>39691</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>8</v>
@@ -10330,19 +10330,19 @@
     </row>
     <row r="429" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C429" s="2">
-        <v>39700</v>
-      </c>
-      <c r="D429" s="2">
-        <v>39701</v>
-      </c>
-      <c r="E429" s="2">
-        <v>39702</v>
+        <v>39691</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>8</v>
@@ -10353,13 +10353,13 @@
     </row>
     <row r="430" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C430" s="2">
-        <v>39690</v>
+        <v>39691</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>8</v>
@@ -10376,13 +10376,13 @@
     </row>
     <row r="431" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C431" s="2">
-        <v>39690</v>
+        <v>39691</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>8</v>
@@ -10399,36 +10399,36 @@
     </row>
     <row r="432" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>3</v>
+        <v>346</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C432" s="2">
-        <v>39690</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E432" s="1" t="s">
-        <v>8</v>
+        <v>39692</v>
+      </c>
+      <c r="D432" s="2">
+        <v>39693</v>
+      </c>
+      <c r="E432" s="2">
+        <v>39694</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G432" s="1" t="s">
-        <v>8</v>
+      <c r="G432" s="2">
+        <v>39699</v>
       </c>
     </row>
     <row r="433" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C433" s="2">
-        <v>39690</v>
+        <v>39692</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>8</v>
@@ -10445,13 +10445,13 @@
     </row>
     <row r="434" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C434" s="2">
-        <v>39690</v>
+        <v>39692</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>8</v>
@@ -10468,13 +10468,13 @@
     </row>
     <row r="435" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C435" s="2">
-        <v>39690</v>
+        <v>39692</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>8</v>
@@ -10491,13 +10491,13 @@
     </row>
     <row r="436" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C436" s="2">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>8</v>
@@ -10514,13 +10514,13 @@
     </row>
     <row r="437" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C437" s="2">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>8</v>
@@ -10537,13 +10537,13 @@
     </row>
     <row r="438" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C438" s="2">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>8</v>
@@ -10560,13 +10560,13 @@
     </row>
     <row r="439" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C439" s="2">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>8</v>
@@ -10583,13 +10583,13 @@
     </row>
     <row r="440" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C440" s="2">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>8</v>
@@ -10606,13 +10606,13 @@
     </row>
     <row r="441" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C441" s="2">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>8</v>
@@ -10629,13 +10629,13 @@
     </row>
     <row r="442" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C442" s="2">
-        <v>39691</v>
+        <v>39692</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>8</v>
@@ -10652,36 +10652,36 @@
     </row>
     <row r="443" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>14</v>
+        <v>347</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C443" s="2">
-        <v>39691</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E443" s="1" t="s">
-        <v>8</v>
+        <v>39693</v>
+      </c>
+      <c r="D443" s="2">
+        <v>39694</v>
+      </c>
+      <c r="E443" s="2">
+        <v>39695</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G443" s="1" t="s">
-        <v>8</v>
+      <c r="G443" s="2">
+        <v>39700</v>
       </c>
     </row>
     <row r="444" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C444" s="2">
-        <v>39692</v>
+        <v>39693</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>8</v>
@@ -10698,13 +10698,13 @@
     </row>
     <row r="445" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C445" s="2">
-        <v>39692</v>
+        <v>39693</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>8</v>
@@ -10721,13 +10721,13 @@
     </row>
     <row r="446" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C446" s="2">
-        <v>39692</v>
+        <v>39693</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>8</v>
@@ -10744,13 +10744,13 @@
     </row>
     <row r="447" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C447" s="2">
-        <v>39692</v>
+        <v>39693</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>8</v>
@@ -10767,13 +10767,13 @@
     </row>
     <row r="448" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C448" s="2">
-        <v>39692</v>
+        <v>39693</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>8</v>
@@ -10790,36 +10790,36 @@
     </row>
     <row r="449" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C449" s="2">
-        <v>39692</v>
-      </c>
-      <c r="D449" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E449" s="1" t="s">
-        <v>8</v>
+        <v>39694</v>
+      </c>
+      <c r="D449" s="2">
+        <v>39695</v>
+      </c>
+      <c r="E449" s="2">
+        <v>39696</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G449" s="1" t="s">
-        <v>8</v>
+      <c r="G449" s="2">
+        <v>39701</v>
       </c>
     </row>
     <row r="450" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C450" s="2">
-        <v>39692</v>
+        <v>39694</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>8</v>
@@ -10836,13 +10836,13 @@
     </row>
     <row r="451" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C451" s="2">
-        <v>39692</v>
+        <v>39694</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>8</v>
@@ -10859,13 +10859,13 @@
     </row>
     <row r="452" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C452" s="2">
-        <v>39692</v>
+        <v>39694</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>8</v>
@@ -10882,13 +10882,13 @@
     </row>
     <row r="453" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C453" s="2">
-        <v>39692</v>
+        <v>39694</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>8</v>
@@ -10905,13 +10905,13 @@
     </row>
     <row r="454" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C454" s="2">
-        <v>39693</v>
+        <v>39694</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>8</v>
@@ -10928,13 +10928,13 @@
     </row>
     <row r="455" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B455" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C455" s="2">
-        <v>39693</v>
+        <v>39694</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>8</v>
@@ -10951,13 +10951,13 @@
     </row>
     <row r="456" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C456" s="2">
-        <v>39693</v>
+        <v>39694</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>8</v>
@@ -10974,13 +10974,13 @@
     </row>
     <row r="457" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C457" s="2">
-        <v>39693</v>
+        <v>39694</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>8</v>
@@ -10997,42 +10997,42 @@
     </row>
     <row r="458" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
-        <v>29</v>
+        <v>349</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C458" s="2">
-        <v>39693</v>
-      </c>
-      <c r="D458" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E458" s="1" t="s">
-        <v>8</v>
+        <v>39695</v>
+      </c>
+      <c r="D458" s="2">
+        <v>39696</v>
+      </c>
+      <c r="E458" s="2">
+        <v>39697</v>
       </c>
       <c r="F458" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G458" s="1" t="s">
-        <v>8</v>
+      <c r="G458" s="2">
+        <v>39702</v>
       </c>
     </row>
     <row r="459" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C459" s="2">
-        <v>39694</v>
-      </c>
-      <c r="D459" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E459" s="1" t="s">
-        <v>8</v>
+        <v>39695</v>
+      </c>
+      <c r="D459" s="2">
+        <v>39696</v>
+      </c>
+      <c r="E459" s="2">
+        <v>39697</v>
       </c>
       <c r="F459" s="1" t="s">
         <v>8</v>
@@ -11043,13 +11043,13 @@
     </row>
     <row r="460" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C460" s="2">
-        <v>39694</v>
+        <v>39695</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>8</v>
@@ -11066,13 +11066,13 @@
     </row>
     <row r="461" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C461" s="2">
-        <v>39694</v>
+        <v>39695</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>8</v>
@@ -11089,13 +11089,13 @@
     </row>
     <row r="462" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C462" s="2">
-        <v>39694</v>
+        <v>39695</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>8</v>
@@ -11112,13 +11112,13 @@
     </row>
     <row r="463" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B463" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C463" s="2">
-        <v>39694</v>
+        <v>39695</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>8</v>
@@ -11135,13 +11135,13 @@
     </row>
     <row r="464" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C464" s="2">
-        <v>39694</v>
+        <v>39695</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>8</v>
@@ -11158,13 +11158,13 @@
     </row>
     <row r="465" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B465" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C465" s="2">
-        <v>39694</v>
+        <v>39695</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>8</v>
@@ -11181,13 +11181,13 @@
     </row>
     <row r="466" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C466" s="2">
-        <v>39694</v>
+        <v>39695</v>
       </c>
       <c r="D466" s="1" t="s">
         <v>8</v>
@@ -11204,7 +11204,7 @@
     </row>
     <row r="467" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B467" s="1" t="s">
         <v>12</v>
@@ -11227,10 +11227,10 @@
     </row>
     <row r="468" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C468" s="2">
         <v>39695</v>
@@ -11250,7 +11250,7 @@
     </row>
     <row r="469" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B469" s="1" t="s">
         <v>11</v>
@@ -11273,10 +11273,10 @@
     </row>
     <row r="470" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C470" s="2">
         <v>39695</v>
@@ -11296,7 +11296,7 @@
     </row>
     <row r="471" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>9</v>
@@ -11319,7 +11319,7 @@
     </row>
     <row r="472" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B472" s="1" t="s">
         <v>9</v>
@@ -11342,19 +11342,19 @@
     </row>
     <row r="473" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C473" s="2">
-        <v>39695</v>
-      </c>
-      <c r="D473" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E473" s="1" t="s">
-        <v>8</v>
+        <v>39696</v>
+      </c>
+      <c r="D473" s="2">
+        <v>39697</v>
+      </c>
+      <c r="E473" s="2">
+        <v>39698</v>
       </c>
       <c r="F473" s="1" t="s">
         <v>8</v>
@@ -11365,19 +11365,19 @@
     </row>
     <row r="474" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C474" s="2">
-        <v>39695</v>
-      </c>
-      <c r="D474" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E474" s="1" t="s">
-        <v>8</v>
+        <v>39696</v>
+      </c>
+      <c r="D474" s="2">
+        <v>39697</v>
+      </c>
+      <c r="E474" s="2">
+        <v>39698</v>
       </c>
       <c r="F474" s="1" t="s">
         <v>8</v>
@@ -11388,19 +11388,19 @@
     </row>
     <row r="475" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C475" s="2">
-        <v>39695</v>
-      </c>
-      <c r="D475" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E475" s="1" t="s">
-        <v>8</v>
+        <v>39696</v>
+      </c>
+      <c r="D475" s="2">
+        <v>39697</v>
+      </c>
+      <c r="E475" s="2">
+        <v>39698</v>
       </c>
       <c r="F475" s="1" t="s">
         <v>8</v>
@@ -11411,13 +11411,13 @@
     </row>
     <row r="476" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C476" s="2">
-        <v>39695</v>
+        <v>39696</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>8</v>
@@ -11434,13 +11434,13 @@
     </row>
     <row r="477" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C477" s="2">
-        <v>39695</v>
+        <v>39696</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>8</v>
@@ -11457,13 +11457,13 @@
     </row>
     <row r="478" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C478" s="2">
-        <v>39695</v>
+        <v>39696</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>8</v>
@@ -11480,13 +11480,13 @@
     </row>
     <row r="479" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C479" s="2">
-        <v>39695</v>
+        <v>39696</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>8</v>
@@ -11503,7 +11503,7 @@
     </row>
     <row r="480" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>12</v>
@@ -11526,10 +11526,10 @@
     </row>
     <row r="481" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C481" s="2">
         <v>39696</v>
@@ -11549,7 +11549,7 @@
     </row>
     <row r="482" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B482" s="1" t="s">
         <v>12</v>
@@ -11572,10 +11572,10 @@
     </row>
     <row r="483" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C483" s="2">
         <v>39696</v>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="484" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>12</v>
@@ -11618,10 +11618,10 @@
     </row>
     <row r="485" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C485" s="2">
         <v>39696</v>
@@ -11641,19 +11641,19 @@
     </row>
     <row r="486" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C486" s="2">
-        <v>39696</v>
-      </c>
-      <c r="D486" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E486" s="1" t="s">
-        <v>8</v>
+        <v>39697</v>
+      </c>
+      <c r="D486" s="2">
+        <v>39698</v>
+      </c>
+      <c r="E486" s="2">
+        <v>39699</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>8</v>
@@ -11664,13 +11664,13 @@
     </row>
     <row r="487" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C487" s="2">
-        <v>39696</v>
+        <v>39697</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>8</v>
@@ -11687,13 +11687,13 @@
     </row>
     <row r="488" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C488" s="2">
-        <v>39696</v>
+        <v>39697</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>8</v>
@@ -11710,13 +11710,13 @@
     </row>
     <row r="489" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C489" s="2">
-        <v>39696</v>
+        <v>39697</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>8</v>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="490" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>12</v>
@@ -11756,13 +11756,13 @@
     </row>
     <row r="491" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C491" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>8</v>
@@ -11779,13 +11779,13 @@
     </row>
     <row r="492" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C492" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>8</v>
@@ -11802,13 +11802,13 @@
     </row>
     <row r="493" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C493" s="2">
-        <v>39697</v>
+        <v>39698</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>8</v>
@@ -11825,19 +11825,19 @@
     </row>
     <row r="494" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C494" s="2">
-        <v>39698</v>
-      </c>
-      <c r="D494" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E494" s="1" t="s">
-        <v>8</v>
+        <v>39699</v>
+      </c>
+      <c r="D494" s="2">
+        <v>39700</v>
+      </c>
+      <c r="E494" s="2">
+        <v>39701</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>8</v>
@@ -11848,13 +11848,13 @@
     </row>
     <row r="495" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C495" s="2">
-        <v>39698</v>
+        <v>39699</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>8</v>
@@ -11871,13 +11871,13 @@
     </row>
     <row r="496" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B496" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C496" s="2">
-        <v>39698</v>
+        <v>39699</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>8</v>
@@ -11894,10 +11894,10 @@
     </row>
     <row r="497" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C497" s="2">
         <v>39699</v>
@@ -11917,10 +11917,10 @@
     </row>
     <row r="498" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C498" s="2">
         <v>39699</v>
@@ -11940,10 +11940,10 @@
     </row>
     <row r="499" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C499" s="2">
         <v>39699</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="500" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>10</v>
@@ -11986,10 +11986,10 @@
     </row>
     <row r="501" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C501" s="2">
         <v>39699</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="502" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>10</v>
@@ -12032,19 +12032,19 @@
     </row>
     <row r="503" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C503" s="2">
-        <v>39699</v>
-      </c>
-      <c r="D503" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E503" s="1" t="s">
-        <v>8</v>
+        <v>39700</v>
+      </c>
+      <c r="D503" s="2">
+        <v>39701</v>
+      </c>
+      <c r="E503" s="2">
+        <v>39702</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>8</v>
@@ -12055,19 +12055,19 @@
     </row>
     <row r="504" spans="1:7" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C504" s="2">
-        <v>39699</v>
-      </c>
-      <c r="D504" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E504" s="1" t="s">
-        <v>8</v>
+        <v>39700</v>
+      </c>
+      <c r="D504" s="2">
+        <v>39701</v>
+      </c>
+      <c r="E504" s="2">
+        <v>39702</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>8</v>
@@ -12701,6 +12701,9 @@
       <c r="A534" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:G534">
+    <sortCondition ref="C1"/>
+  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/国赛训练/2019培训3/code/originDataAll.xlsx
+++ b/国赛训练/2019培训3/code/originDataAll.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\MCM-2019-College\国赛训练\2019培训3\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539486D0-F1EC-493C-80F5-A59FAB5B4CC7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB096DE-5896-4707-A6EB-89606D0C1AB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1995" yWindow="-15720" windowWidth="29040" windowHeight="15840" xr2:uid="{98FDAF19-227B-4A85-A300-1F264B583B8D}"/>
   </bookViews>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A21C59-3A10-4A66-A973-40B6EA3078F3}">
   <dimension ref="A1:I534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -12701,7 +12701,7 @@
       <c r="A534" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:G534">
+  <sortState ref="A2:G535">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
